--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value803.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value803.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.952420171089611</v>
+        <v>1.245863437652588</v>
       </c>
       <c r="B1">
-        <v>3.078563777571374</v>
+        <v>1.796949982643127</v>
       </c>
       <c r="C1">
-        <v>2.39845993291737</v>
+        <v>4.695855140686035</v>
       </c>
       <c r="D1">
-        <v>2.237538969454832</v>
+        <v>0.7894878387451172</v>
       </c>
       <c r="E1">
-        <v>1.907275687585545</v>
+        <v>0.7940481305122375</v>
       </c>
     </row>
   </sheetData>
